--- a/singles/arenda/transkom_in.xlsx
+++ b/singles/arenda/transkom_in.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" windowHeight="8130" windowWidth="8145" xWindow="-945" yWindow="60"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="one" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Mitada" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="United" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Bona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="one" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mitada" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="United" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bona" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 

--- a/singles/arenda/transkom_in.xlsx
+++ b/singles/arenda/transkom_in.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
-    <sheet name="United" sheetId="3" r:id="rId2"/>
-    <sheet name="Mitada" sheetId="2" r:id="rId3"/>
+    <sheet name="United" sheetId="2" r:id="rId2"/>
+    <sheet name="Mitada" sheetId="3" r:id="rId3"/>
     <sheet name="Bona" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="113">
   <si>
     <t>№№ п/п</t>
   </si>
@@ -81,6 +81,12 @@
     <t>Возмещение ст-ти эл/энергии МОП  за сентябрь17</t>
   </si>
   <si>
+    <t>Возмещение стоимости индексации задолженности и индексации оплаты по электроэнергии, декабрь</t>
+  </si>
+  <si>
+    <t>Возмещ.сумм пени и процентов за пользование чужими ден.ср-вами за т/энергию за январь 2018г</t>
+  </si>
+  <si>
     <t>ИТОГО</t>
   </si>
   <si>
@@ -117,6 +123,105 @@
     <t>г. Минск</t>
   </si>
   <si>
+    <t xml:space="preserve"> 1.   В соответствии с п.1.7 Договора субаренды № 2-СА/1 от 07.12.2015г. между </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧП «Юнитрейдинвестгрупп»  и ЗАО "Транскомлогист и к», фактические расходы </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧП «Юнитрейдинвестгрупп»  по содержанию, эксплуатации сданных  в аренду </t>
+  </si>
+  <si>
+    <t xml:space="preserve">помещений, затраты за потребляемую электроэнергию по действующим </t>
+  </si>
+  <si>
+    <t>тарифам, затраты на оплату коммунальных услуг возмещаются ЗАО</t>
+  </si>
+  <si>
+    <t>«Транскомлогист и к» ежемесячно пропорционально используемой площади.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.    Общая площадь арендуемых ЧП «Юнитрейдинвестгрупп» помещений =22,0 кв.м. </t>
+  </si>
+  <si>
+    <t>  Процентное соотношение арендуемой и общей площади=19,84%</t>
+  </si>
+  <si>
+    <t>3.    Расчет</t>
+  </si>
+  <si>
+    <t>Ставка НДС,%</t>
+  </si>
+  <si>
+    <t>Сумма НДС</t>
+  </si>
+  <si>
+    <t>Сумма с НДС</t>
+  </si>
+  <si>
+    <t>Без НДС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Настоящий расчет является протоколом согласования договорной  цены на </t>
+  </si>
+  <si>
+    <t xml:space="preserve">возмещение  фактических  расходов ЧП «Юнитрейдинвестгрупп»  по содержанию, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">эксплуатации полученных  в аренду помещений, затратам за потребляемую </t>
+  </si>
+  <si>
+    <t xml:space="preserve">электроэнергию по действующим тарифам,  по затратам на оплату </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> коммунальных услуг.</t>
+  </si>
+  <si>
+    <t>Арендатор</t>
+  </si>
+  <si>
+    <t>Субарендатор</t>
+  </si>
+  <si>
+    <t>г.Минск, пер. Козлова 7Г -508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220037, г.Минск, </t>
+  </si>
+  <si>
+    <t>ЧП «Юнитрейдинвестгрупп»</t>
+  </si>
+  <si>
+    <t>пер.Козлова, д. 7г. комн. 507</t>
+  </si>
+  <si>
+    <t>р/с № 301209570010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">р/с № 3012171479010 в ЦБУ №704 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">в  ЗАО «БТА Банк»  в г. Минске, </t>
+  </si>
+  <si>
+    <t>ОАО «БПС-Сбербанк»</t>
+  </si>
+  <si>
+    <t>код 704</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в г. Минске, код 369,</t>
+  </si>
+  <si>
+    <t>УНП 691460275</t>
+  </si>
+  <si>
+    <t>____________________ Остапенко С.И.</t>
+  </si>
+  <si>
+    <t>__________________Скрипченко А.А.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 1.   В соответствии с п.1.7 Договора субаренды № 6-СА от 15.06.2015г. между </t>
   </si>
   <si>
@@ -126,135 +231,36 @@
     <t xml:space="preserve">УП "МИТАДА - ТОРГ"  по содержанию, эксплуатации сданных  в аренду </t>
   </si>
   <si>
-    <t xml:space="preserve">помещений, затраты за потребляемую электроэнергию по действующим </t>
-  </si>
-  <si>
-    <t>тарифам, затраты на оплату коммунальных услуг возмещаются ЗАО</t>
-  </si>
-  <si>
-    <t>«Транскомлогист и к» ежемесячно пропорционально используемой площади.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2.    Общая площадь арендуемых УП "МИТАДА - ТОРГ" помещений =20,62 кв.м. </t>
   </si>
   <si>
     <t>    Процентное соотношение арендуемой и общей площади=15,22%</t>
   </si>
   <si>
-    <t>3.    Расчет</t>
-  </si>
-  <si>
-    <t>Ставка НДС,%</t>
-  </si>
-  <si>
-    <t>Сумма НДС</t>
-  </si>
-  <si>
-    <t>Сумма с НДС</t>
-  </si>
-  <si>
-    <t>Без НДС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Настоящий расчет является протоколом согласования договорной  цены на </t>
-  </si>
-  <si>
     <t xml:space="preserve">возмещение  фактических  расходов УП "МИТАДА - ТОРГ"  по содержанию, </t>
   </si>
   <si>
-    <t xml:space="preserve">эксплуатации полученных  в аренду помещений, затратам за потребляемую </t>
-  </si>
-  <si>
-    <t xml:space="preserve">электроэнергию по действующим тарифам,  по затратам на оплату </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> коммунальных услуг.</t>
-  </si>
-  <si>
-    <t>Арендатор</t>
-  </si>
-  <si>
-    <t>Субарендатор</t>
-  </si>
-  <si>
     <t>УП "МИТАДА - ТОРГ"</t>
   </si>
   <si>
-    <t xml:space="preserve">220037, г.Минск, </t>
-  </si>
-  <si>
-    <t>пер.Козлова, д. 7г. комн. 507</t>
-  </si>
-  <si>
     <t>пер. Козлова, 7г-505</t>
   </si>
   <si>
-    <t xml:space="preserve">р/с № 3012171479010 в ЦБУ №704 </t>
-  </si>
-  <si>
     <t>р/с № 3012608190027</t>
   </si>
   <si>
-    <t>ОАО «БПС-Сбербанк»</t>
-  </si>
-  <si>
     <t xml:space="preserve">в  ЦБУ №521 ОАО «Белинвестбанк»  </t>
   </si>
   <si>
-    <t xml:space="preserve"> в г. Минске, код 369,</t>
-  </si>
-  <si>
     <t>в г. Минске, код 739</t>
   </si>
   <si>
     <t>УНП 190453260, ОКПО 37594661</t>
   </si>
   <si>
-    <t>____________________ Остапенко С.И.</t>
-  </si>
-  <si>
     <t>____________________ Калитович М.И.</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1.   В соответствии с п.1.7 Договора субаренды № 2-СА/1 от 07.12.2015г. между </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧП «Юнитрейдинвестгрупп»  и ЗАО "Транскомлогист и к», фактические расходы </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЧП «Юнитрейдинвестгрупп»  по содержанию, эксплуатации сданных  в аренду </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.    Общая площадь арендуемых ЧП «Юнитрейдинвестгрупп» помещений =22,0 кв.м. </t>
-  </si>
-  <si>
-    <t>  Процентное соотношение арендуемой и общей площади=19,84%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">возмещение  фактических  расходов ЧП «Юнитрейдинвестгрупп»  по содержанию, </t>
-  </si>
-  <si>
-    <t>г.Минск, пер. Козлова 7Г -508</t>
-  </si>
-  <si>
-    <t>ЧП «Юнитрейдинвестгрупп»</t>
-  </si>
-  <si>
-    <t>р/с № 301209570010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">в  ЗАО «БТА Банк»  в г. Минске, </t>
-  </si>
-  <si>
-    <t>код 704</t>
-  </si>
-  <si>
-    <t>УНП 691460275</t>
-  </si>
-  <si>
-    <t>__________________Скрипченко А.А.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1.   В соответствии с п.1.7 Договора субаренды № 3-СА от 01.04.2015г. между </t>
   </si>
   <si>
@@ -294,67 +300,67 @@
     <t>____________________ Цветов Д.Н.</t>
   </si>
   <si>
-    <t>Возмещение ст-ти индексации задолженности и индексации оплаты по эл.энергии</t>
-  </si>
-  <si>
-    <t>Возмещение индексации оплаты за т.энергию</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости технического обслуживания  за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости эл/энергии за январь</t>
-  </si>
-  <si>
-    <t>Возмещение ст-ти эл/энергии  (лифты) за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости т/энергии  за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости обезвреживания ТБО за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости вывоза ТБО за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости ВОДОснабжения за январь</t>
-  </si>
-  <si>
-    <t>Возмещение налога на захоронение  ТО за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости дезработ за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости ТО лифтов за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости ТО СПС за январь</t>
-  </si>
-  <si>
-    <t>Возмещение стоимости охраны объектов за январь</t>
-  </si>
-  <si>
-    <t>Возмещение ст-ти эл/энергии   МОП за январь</t>
-  </si>
-  <si>
-    <t>31 января  2018г</t>
-  </si>
-  <si>
-    <t>за  январь 2018 г</t>
-  </si>
-  <si>
-    <t>30 января  2018г</t>
-  </si>
-  <si>
-    <t>Сумма    возмещения    за январь составляет  205,89 (двести пять) рублей 89 копеек, в том числе НДС 25 рублей 61 копейка</t>
-  </si>
-  <si>
-    <t>Сумма возмещения за декабрь составляет 115 (сто пятнадцать) рублей 29 копеек, в т.ч НДС 14 рублей 34 копейки</t>
-  </si>
-  <si>
-    <t>Сумма    возмещения    за декабрь 2017 г составляет  157,97 (сто пятьдесят семь) рублей 97 копеек, в т.ч НДС 19 рублей 65 копеек</t>
+    <t>Возмещение земельного налога за 1-кв. 2017 г</t>
+  </si>
+  <si>
+    <t>Возмещение налоаг на недвиж. 1кв.</t>
+  </si>
+  <si>
+    <t>за  февраль 2018 г</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости технического обслуживания  за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости эл/энергии за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение ст-ти эл/энергии  (лифты) за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости т/энергии  за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости обезвреживания ТБО за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости вывоза ТБО за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости ВОДОснабжения за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение налога на захоронение  ТО за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости дезработ за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости ТО лифтов за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости ТО СПС за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение стоимости охраны объектов за февраль</t>
+  </si>
+  <si>
+    <t>Возмещение ст-ти эл/энергии   МОП за февраль</t>
+  </si>
+  <si>
+    <t>Возмещ.сумм пени и процентов за пользование чужими ден.ср-вами за т/энергию за февраль 2018г</t>
+  </si>
+  <si>
+    <t>28 февраля  2018г</t>
+  </si>
+  <si>
+    <t>Сумма    возмещения    за февраль составляет  370,55 (триста семьдесят) рублей 55 копеек, в том числе НДС 24 рубля 12 копеек</t>
+  </si>
+  <si>
+    <t>Сумма    возмещения    за декабрь 2017 г составляет  284,29 (двести восемьдесят четыре) рубля 29 копеек, в т.ч НДС 18 рублей 50 копеек</t>
+  </si>
+  <si>
+    <t>Сумма возмещения за декабрь составляет 207 (двести семь) рублей 22 копейки, в т.ч НДС 13 рублей 51 копейка</t>
   </si>
 </sst>
 </file>
@@ -727,17 +733,17 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1031,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1090,19 +1096,19 @@
         <v>7</v>
       </c>
       <c r="C3" s="19">
-        <v>239.95</v>
+        <v>241.81</v>
       </c>
       <c r="D3" s="17">
         <f t="shared" ref="D3:D18" si="2">C3*0.1984</f>
-        <v>47.606079999999999</v>
+        <v>47.975104000000002</v>
       </c>
       <c r="E3" s="17">
         <f t="shared" si="0"/>
-        <v>36.520389999999999</v>
+        <v>36.803482000000002</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" si="1"/>
-        <v>26.658445</v>
+        <v>26.865091</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1116,19 +1122,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="18">
-        <v>17.18</v>
+        <v>16.98</v>
       </c>
       <c r="D4" s="17">
         <f t="shared" si="2"/>
-        <v>3.408512</v>
+        <v>3.3688319999999998</v>
       </c>
       <c r="E4" s="17">
         <f t="shared" si="0"/>
-        <v>2.6147960000000001</v>
+        <v>2.5843560000000001</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" si="1"/>
-        <v>1.908698</v>
+        <v>1.8864780000000001</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1142,19 +1148,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="18">
-        <v>254.76</v>
+        <v>210.06</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="2"/>
-        <v>50.544383999999994</v>
+        <v>41.675903999999996</v>
       </c>
       <c r="E5" s="17">
         <f t="shared" si="0"/>
-        <v>38.774471999999996</v>
+        <v>31.971132000000001</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" si="1"/>
-        <v>28.303836</v>
+        <v>23.337666000000002</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1220,19 +1226,19 @@
         <v>12</v>
       </c>
       <c r="C8" s="19">
-        <v>29.14</v>
+        <v>36.43</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="2"/>
-        <v>5.7813759999999998</v>
+        <v>7.2277119999999995</v>
       </c>
       <c r="E8" s="17">
         <f t="shared" si="0"/>
-        <v>4.4351080000000005</v>
+        <v>5.5446460000000002</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="1"/>
-        <v>3.2374540000000001</v>
+        <v>4.0473730000000003</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -1376,19 +1382,19 @@
         <v>18</v>
       </c>
       <c r="C14" s="19">
-        <v>0.9</v>
+        <v>1.19</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="2"/>
-        <v>0.17856</v>
+        <v>0.23609599999999997</v>
       </c>
       <c r="E14" s="17">
         <f t="shared" si="0"/>
-        <v>0.13698000000000002</v>
+        <v>0.181118</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" si="1"/>
-        <v>9.9990000000000009E-2</v>
+        <v>0.13220899999999999</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1399,22 +1405,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C15" s="19">
-        <v>17.02</v>
+        <v>15.84</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="2"/>
-        <v>3.3767679999999998</v>
+        <v>3.1426559999999997</v>
       </c>
       <c r="E15" s="17">
         <f t="shared" si="0"/>
-        <v>2.5904439999999997</v>
+        <v>2.4108480000000001</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" si="1"/>
-        <v>1.890922</v>
+        <v>1.7598240000000001</v>
       </c>
       <c r="G15" s="21"/>
     </row>
@@ -1423,22 +1429,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C16" s="19">
-        <v>14.52</v>
+        <v>13.35</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="2"/>
-        <v>2.8807679999999998</v>
+        <v>2.6486399999999999</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="0"/>
-        <v>2.2099440000000001</v>
+        <v>2.0318700000000001</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" si="1"/>
-        <v>1.6131720000000001</v>
+        <v>1.483185</v>
       </c>
       <c r="G16" s="21"/>
     </row>
@@ -1447,21 +1453,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="19">
-        <v>0.9</v>
-      </c>
-      <c r="D17" s="17">
-        <f t="shared" si="2"/>
-        <v>0.17856</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" si="0"/>
-        <v>0.13698000000000002</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" si="1"/>
-        <v>9.9990000000000009E-2</v>
-      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,23 +1483,23 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="13">
         <f>SUM(C2:C18)</f>
-        <v>653.14</v>
+        <v>614.43000000000018</v>
       </c>
       <c r="D19" s="14">
         <f>SUM(D3:D18)</f>
-        <v>129.582976</v>
+        <v>121.90291199999999</v>
       </c>
       <c r="E19" s="14">
         <f>SUM(E2:E18)</f>
-        <v>99.407907999999992</v>
+        <v>93.51624600000001</v>
       </c>
       <c r="F19" s="15">
         <f>SUM(F2:F18)</f>
-        <v>72.563854000000021</v>
+        <v>68.263173000000009</v>
       </c>
     </row>
   </sheetData>
@@ -1518,10 +1513,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1977,8 +1972,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="68" t="s">
-        <v>20</v>
+      <c r="C1" s="66" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
@@ -1986,25 +1981,25 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="69" t="s">
-        <v>23</v>
+      <c r="C4" s="68" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="69" t="s">
-        <v>24</v>
+      <c r="C5" s="68" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
@@ -2013,17 +2008,17 @@
     <row r="6" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -2034,7 +2029,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -2047,7 +2042,7 @@
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -2057,7 +2052,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -2076,13 +2071,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -2098,7 +2093,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -2109,7 +2104,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -2120,7 +2115,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -2131,7 +2126,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -2142,7 +2137,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2153,7 +2148,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -2164,7 +2159,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2175,7 +2170,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -2186,7 +2181,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2201,13 +2196,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,18 +2210,18 @@
         <v>1</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C29" s="33">
-        <v>51.05</v>
+        <v>51.55</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="35">
         <f>C29-E29</f>
-        <v>51.05</v>
+        <v>51.55</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2234,21 +2229,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C30" s="38">
-        <v>47.61</v>
+        <v>47.98</v>
       </c>
       <c r="D30" s="39">
         <v>20</v>
       </c>
       <c r="E30" s="40">
         <f t="shared" ref="E30:E35" si="0">C30*D30/100</f>
-        <v>9.5220000000000002</v>
+        <v>9.5959999999999983</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" ref="F30:F43" si="1">C30+E30</f>
-        <v>57.131999999999998</v>
+        <f t="shared" ref="F30:F45" si="1">C30+E30</f>
+        <v>57.575999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2256,21 +2251,21 @@
         <v>3</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C31" s="38">
-        <v>3.41</v>
+        <v>3.37</v>
       </c>
       <c r="D31" s="39">
         <v>20</v>
       </c>
       <c r="E31" s="40">
         <f t="shared" si="0"/>
-        <v>0.68200000000000005</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="F31" s="40">
         <f t="shared" si="1"/>
-        <v>4.0920000000000005</v>
+        <v>4.0440000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2278,21 +2273,21 @@
         <v>4</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C32" s="38">
-        <v>50.54</v>
+        <v>41.68</v>
       </c>
       <c r="D32" s="39">
         <v>20</v>
       </c>
       <c r="E32" s="40">
         <f t="shared" si="0"/>
-        <v>10.107999999999999</v>
+        <v>8.3360000000000003</v>
       </c>
       <c r="F32" s="40">
         <f t="shared" si="1"/>
-        <v>60.647999999999996</v>
+        <v>50.015999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2300,7 +2295,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C33" s="38">
         <v>0.35</v>
@@ -2322,7 +2317,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C34" s="38">
         <v>0.83</v>
@@ -2344,21 +2339,21 @@
         <v>7</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C35" s="38">
-        <v>5.78</v>
+        <v>7.23</v>
       </c>
       <c r="D35" s="39">
         <v>20</v>
       </c>
       <c r="E35" s="40">
         <f t="shared" si="0"/>
-        <v>1.1560000000000001</v>
+        <v>1.4460000000000002</v>
       </c>
       <c r="F35" s="40">
         <f t="shared" si="1"/>
-        <v>6.9359999999999999</v>
+        <v>8.6760000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,13 +2361,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C36" s="38">
         <v>0.17</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40">
@@ -2385,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C37" s="38">
         <v>0.05</v>
@@ -2407,7 +2402,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C38" s="38">
         <v>10.75</v>
@@ -2429,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C39" s="38">
         <v>2.31</v>
@@ -2451,13 +2446,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C40" s="38">
         <v>0.99</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40">
@@ -2470,132 +2465,149 @@
         <v>14</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="38">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="D41" s="39">
         <v>20</v>
       </c>
       <c r="E41" s="40">
         <f>C41*D41/100</f>
-        <v>3.5999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F41" s="40">
         <f t="shared" si="1"/>
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>14</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C42" s="41">
-        <v>3.38</v>
+        <v>3.14</v>
       </c>
       <c r="D42" s="39">
         <v>20</v>
       </c>
       <c r="E42" s="40">
         <f>C42*D42/100</f>
-        <v>0.67599999999999993</v>
+        <v>0.628</v>
       </c>
       <c r="F42" s="40">
         <f t="shared" si="1"/>
-        <v>4.056</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.7680000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>17</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C43" s="42">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="D43" s="39">
         <v>20</v>
       </c>
       <c r="E43" s="40">
         <f>C43*D43/100</f>
-        <v>0.57599999999999996</v>
+        <v>0.53</v>
       </c>
       <c r="F43" s="40">
         <f t="shared" si="1"/>
-        <v>3.456</v>
+        <v>3.1799999999999997</v>
       </c>
       <c r="I43" s="43"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="46">
-        <f>SUM(C29:C43)</f>
-        <v>180.28</v>
-      </c>
-      <c r="D44" s="39">
+    <row r="44" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="42">
+        <v>27.52</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40">
+        <f t="shared" si="1"/>
+        <v>27.52</v>
+      </c>
+      <c r="I44" s="43"/>
+    </row>
+    <row r="45" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="42">
+        <v>145.62</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40">
+        <f t="shared" si="1"/>
+        <v>145.62</v>
+      </c>
+      <c r="I45" s="43"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="46">
+        <v>0.18</v>
+      </c>
+      <c r="D46" s="39">
         <v>20</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E46" s="40">
         <f>SUM(E29:E43)</f>
-        <v>25.613999999999997</v>
-      </c>
-      <c r="F44" s="40">
-        <f>SUM(F29:F43)</f>
-        <v>205.89399999999998</v>
-      </c>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="K45" s="43"/>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-    </row>
-    <row r="47" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-    </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="23"/>
+        <v>24.116</v>
+      </c>
+      <c r="F46" s="40">
+        <f>SUM(F29:F45)</f>
+        <v>370.54599999999999</v>
+      </c>
+      <c r="H46" s="43"/>
+    </row>
+    <row r="47" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67">
+        <v>0.18</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
     </row>
-    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="23"/>
+    <row r="49" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="23"/>
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
@@ -2631,53 +2643,47 @@
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="23"/>
-      <c r="B54" s="47" t="s">
+    <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56" t="s">
         <v>49</v>
       </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="23"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
-      <c r="E54" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="E54" s="23"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="23"/>
-      <c r="B55" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="23"/>
-      <c r="D55" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="23"/>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="48" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="48" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
@@ -2686,11 +2692,11 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
       <c r="B58" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="23"/>
       <c r="D58" s="48" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
@@ -2699,11 +2705,11 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
       <c r="B59" s="48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="23"/>
       <c r="D59" s="48" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
@@ -2712,11 +2718,11 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
       <c r="B60" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="23"/>
       <c r="D60" s="48" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
@@ -2725,26 +2731,34 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
       <c r="B61" s="48" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="D61" s="48" t="s">
+        <v>61</v>
+      </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
-      <c r="B62" s="23"/>
+      <c r="B62" s="48" t="s">
+        <v>62</v>
+      </c>
       <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="D62" s="48" t="s">
+        <v>63</v>
+      </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
+      <c r="B63" s="48" t="s">
+        <v>27</v>
+      </c>
       <c r="C63" s="23"/>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -2753,26 +2767,44 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
-      <c r="B64" s="48" t="s">
-        <v>62</v>
-      </c>
+      <c r="B64" s="23"/>
       <c r="C64" s="23"/>
-      <c r="D64" s="48" t="s">
-        <v>76</v>
-      </c>
+      <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="23"/>
+      <c r="B66" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A47:F47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2781,10 +2813,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3240,8 +3272,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="68" t="s">
-        <v>20</v>
+      <c r="C1" s="66" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
@@ -3249,25 +3281,25 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="69" t="s">
-        <v>23</v>
+      <c r="C4" s="68" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="69" t="s">
-        <v>24</v>
+      <c r="C5" s="68" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
@@ -3276,17 +3308,17 @@
     <row r="6" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -3297,7 +3329,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -3310,7 +3342,7 @@
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -3320,7 +3352,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -3339,13 +3371,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="49" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -3361,7 +3393,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -3372,7 +3404,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -3383,7 +3415,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -3394,7 +3426,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -3405,7 +3437,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3416,7 +3448,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -3427,7 +3459,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -3438,7 +3470,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -3449,7 +3481,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3464,13 +3496,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3478,18 +3510,18 @@
         <v>1</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C29" s="33">
-        <v>39.18</v>
+        <v>39.56</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="35">
         <f>C29-E29</f>
-        <v>39.18</v>
+        <v>39.56</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,21 +3529,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C30" s="38">
-        <v>36.520000000000003</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="D30" s="39">
         <v>20</v>
       </c>
       <c r="E30" s="40">
         <f t="shared" ref="E30:E35" si="0">C30*D30/100</f>
-        <v>7.3040000000000012</v>
+        <v>7.36</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" ref="F30:F43" si="1">C30+E30</f>
-        <v>43.824000000000005</v>
+        <f t="shared" ref="F30:F45" si="1">C30+E30</f>
+        <v>44.16</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3519,21 +3551,21 @@
         <v>3</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C31" s="38">
-        <v>2.61</v>
+        <v>2.58</v>
       </c>
       <c r="D31" s="39">
         <v>20</v>
       </c>
       <c r="E31" s="40">
         <f t="shared" si="0"/>
-        <v>0.52199999999999991</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="F31" s="40">
         <f t="shared" si="1"/>
-        <v>3.1319999999999997</v>
+        <v>3.0960000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3541,21 +3573,21 @@
         <v>4</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C32" s="38">
-        <v>38.770000000000003</v>
+        <v>31.97</v>
       </c>
       <c r="D32" s="39">
         <v>20</v>
       </c>
       <c r="E32" s="40">
         <f t="shared" si="0"/>
-        <v>7.7540000000000013</v>
+        <v>6.3940000000000001</v>
       </c>
       <c r="F32" s="40">
         <f t="shared" si="1"/>
-        <v>46.524000000000001</v>
+        <v>38.363999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3563,7 +3595,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C33" s="38">
         <v>0.27</v>
@@ -3585,7 +3617,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C34" s="38">
         <v>0.64</v>
@@ -3607,21 +3639,21 @@
         <v>7</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C35" s="38">
-        <v>4.4400000000000004</v>
+        <v>5.54</v>
       </c>
       <c r="D35" s="39">
         <v>20</v>
       </c>
       <c r="E35" s="40">
         <f t="shared" si="0"/>
-        <v>0.88800000000000012</v>
+        <v>1.1079999999999999</v>
       </c>
       <c r="F35" s="40">
         <f t="shared" si="1"/>
-        <v>5.3280000000000003</v>
+        <v>6.6479999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3629,13 +3661,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C36" s="38">
         <v>0.13</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40">
@@ -3648,7 +3680,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C37" s="38">
         <v>0.04</v>
@@ -3670,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C38" s="38">
         <v>8.25</v>
@@ -3692,7 +3724,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C39" s="38">
         <v>1.77</v>
@@ -3714,13 +3746,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C40" s="38">
         <v>0.76</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40">
@@ -3733,21 +3765,21 @@
         <v>14</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="38">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="D41" s="39">
         <v>20</v>
       </c>
       <c r="E41" s="40">
         <f>C41*D41/100</f>
-        <v>2.8000000000000004E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F41" s="40">
         <f t="shared" si="1"/>
-        <v>0.16800000000000001</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3755,104 +3787,121 @@
         <v>14</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C42" s="41">
-        <v>2.59</v>
+        <v>2.41</v>
       </c>
       <c r="D42" s="39">
         <v>20</v>
       </c>
       <c r="E42" s="40">
         <f>C42*D42/100</f>
-        <v>0.51800000000000002</v>
+        <v>0.48200000000000004</v>
       </c>
       <c r="F42" s="40">
         <f t="shared" si="1"/>
-        <v>3.1079999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.8920000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>17</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C43" s="42">
-        <v>2.21</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D43" s="39">
         <v>20</v>
       </c>
       <c r="E43" s="40">
         <f>C43*D43/100</f>
-        <v>0.442</v>
+        <v>0.40599999999999992</v>
       </c>
       <c r="F43" s="40">
         <f t="shared" si="1"/>
-        <v>2.6520000000000001</v>
+        <v>2.4359999999999999</v>
       </c>
       <c r="I43" s="43"/>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="46">
-        <f>SUM(C29:C43)</f>
-        <v>138.32000000000002</v>
-      </c>
-      <c r="D44" s="39">
+    <row r="44" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="42">
+        <v>21.12</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40">
+        <f t="shared" si="1"/>
+        <v>21.12</v>
+      </c>
+      <c r="I44" s="43"/>
+    </row>
+    <row r="45" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="42">
+        <v>111.74</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40">
+        <f t="shared" si="1"/>
+        <v>111.74</v>
+      </c>
+      <c r="I45" s="43"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="46">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D46" s="39">
         <v>20</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E46" s="40">
         <f>SUM(E29:E43)</f>
-        <v>19.649999999999999</v>
-      </c>
-      <c r="F44" s="40">
-        <f>SUM(F29:F43)</f>
-        <v>157.97000000000003</v>
-      </c>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="K45" s="43"/>
-    </row>
-    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-    </row>
-    <row r="47" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-    </row>
-    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18.495999999999999</v>
+      </c>
+      <c r="F46" s="40">
+        <f>SUM(F29:F45)</f>
+        <v>284.286</v>
+      </c>
+      <c r="H46" s="43"/>
+    </row>
+    <row r="47" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D47" s="51"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="56"/>
       <c r="B49" s="55"/>
       <c r="C49" s="23"/>
@@ -3860,8 +3909,8 @@
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
     </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="23"/>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
       <c r="B50" s="55"/>
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
@@ -3869,20 +3918,16 @@
       <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="23"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
     </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="23"/>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
@@ -3892,9 +3937,7 @@
       <c r="A53" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="23">
-        <v>3</v>
-      </c>
+      <c r="B53" s="23"/>
       <c r="C53" s="23"/>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
@@ -3902,7 +3945,7 @@
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -3914,102 +3957,124 @@
       <c r="A55" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="23"/>
+      <c r="B55" s="23">
+        <v>3</v>
+      </c>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="23"/>
+    <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56" t="s">
+        <v>49</v>
+      </c>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" s="57" t="s">
+    <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
         <v>50</v>
       </c>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="58" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="57"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="58" t="s">
+      <c r="E59" s="57" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" s="58" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D60" s="58" t="s">
-        <v>54</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D62" s="58" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B63" s="58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" s="58" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D64" s="58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="59" t="s">
-        <v>63</v>
+      <c r="D65" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="59" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A48:F48"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4018,10 +4083,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4477,8 +4542,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="68" t="s">
-        <v>20</v>
+      <c r="C1" s="66" t="s">
+        <v>22</v>
       </c>
       <c r="D1" s="67"/>
       <c r="E1" s="67"/>
@@ -4486,25 +4551,25 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="69" t="s">
-        <v>23</v>
+      <c r="C4" s="68" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
       <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="69" t="s">
-        <v>24</v>
+      <c r="C5" s="68" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="67"/>
       <c r="E5" s="67"/>
@@ -4513,18 +4578,18 @@
     <row r="6" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -4535,7 +4600,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -4548,7 +4613,7 @@
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -4558,7 +4623,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="26" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -4577,13 +4642,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="49" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
@@ -4599,7 +4664,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -4610,7 +4675,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -4621,7 +4686,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -4632,7 +4697,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -4643,7 +4708,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4654,7 +4719,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
@@ -4665,7 +4730,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -4676,7 +4741,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -4687,7 +4752,7 @@
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4702,13 +4767,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4716,13 +4781,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C29" s="33">
         <v>28.59</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="35">
@@ -4735,21 +4800,21 @@
         <v>2</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C30" s="38">
-        <v>26.66</v>
+        <v>26.87</v>
       </c>
       <c r="D30" s="39">
         <v>20</v>
       </c>
       <c r="E30" s="40">
         <f t="shared" ref="E30:E35" si="0">C30*D30/100</f>
-        <v>5.3320000000000007</v>
+        <v>5.3739999999999997</v>
       </c>
       <c r="F30" s="40">
-        <f t="shared" ref="F30:F43" si="1">C30+E30</f>
-        <v>31.992000000000001</v>
+        <f t="shared" ref="F30:F45" si="1">C30+E30</f>
+        <v>32.244</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4757,21 +4822,21 @@
         <v>3</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C31" s="38">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D31" s="39">
         <v>20</v>
       </c>
       <c r="E31" s="40">
         <f t="shared" si="0"/>
-        <v>0.38199999999999995</v>
+        <v>0.37799999999999995</v>
       </c>
       <c r="F31" s="40">
         <f t="shared" si="1"/>
-        <v>2.2919999999999998</v>
+        <v>2.2679999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4779,21 +4844,21 @@
         <v>4</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C32" s="38">
-        <v>28.3</v>
+        <v>23.34</v>
       </c>
       <c r="D32" s="39">
         <v>20</v>
       </c>
       <c r="E32" s="40">
         <f t="shared" si="0"/>
-        <v>5.66</v>
+        <v>4.6680000000000001</v>
       </c>
       <c r="F32" s="40">
         <f t="shared" si="1"/>
-        <v>33.96</v>
+        <v>28.007999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4801,7 +4866,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C33" s="38">
         <v>0.2</v>
@@ -4823,7 +4888,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C34" s="38">
         <v>0.47</v>
@@ -4845,21 +4910,21 @@
         <v>7</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C35" s="38">
-        <v>3.24</v>
+        <v>4.05</v>
       </c>
       <c r="D35" s="39">
         <v>20</v>
       </c>
       <c r="E35" s="40">
         <f t="shared" si="0"/>
-        <v>0.64800000000000013</v>
+        <v>0.81</v>
       </c>
       <c r="F35" s="40">
         <f t="shared" si="1"/>
-        <v>3.8880000000000003</v>
+        <v>4.8599999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,13 +4932,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C36" s="38">
         <v>0.09</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40">
@@ -4886,7 +4951,7 @@
         <v>9</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C37" s="38">
         <v>0.03</v>
@@ -4908,7 +4973,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C38" s="38">
         <v>6.02</v>
@@ -4930,7 +4995,7 @@
         <v>11</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C39" s="38">
         <v>1.29</v>
@@ -4952,13 +5017,13 @@
         <v>12</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C40" s="38">
         <v>0.55000000000000004</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40">
@@ -4971,128 +5036,143 @@
         <v>14</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C41" s="38">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="D41" s="39">
         <v>20</v>
       </c>
       <c r="E41" s="40">
         <f>C41*D41/100</f>
-        <v>0.02</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="F41" s="40">
         <f t="shared" si="1"/>
-        <v>0.12000000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <v>14</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="C42" s="41">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="D42" s="39">
         <v>20</v>
       </c>
       <c r="E42" s="40">
         <f>C42*D42/100</f>
-        <v>0.37799999999999995</v>
+        <v>0.35200000000000004</v>
       </c>
       <c r="F42" s="40">
         <f t="shared" si="1"/>
-        <v>2.2679999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.1120000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>17</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C43" s="42">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="D43" s="39">
         <v>20</v>
       </c>
       <c r="E43" s="40">
         <f>C43*D43/100</f>
-        <v>0.32200000000000001</v>
+        <v>0.29600000000000004</v>
       </c>
       <c r="F43" s="40">
         <f t="shared" si="1"/>
-        <v>1.9320000000000002</v>
+        <v>1.776</v>
       </c>
       <c r="I43" s="43"/>
     </row>
-    <row r="44" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="46">
-        <f>SUM(C29:C43)</f>
-        <v>100.94999999999999</v>
-      </c>
-      <c r="D44" s="39">
+    <row r="44" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="42">
+        <v>15.41</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40">
+        <f t="shared" si="1"/>
+        <v>15.41</v>
+      </c>
+      <c r="I44" s="43"/>
+    </row>
+    <row r="45" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="42">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40">
+        <f t="shared" si="1"/>
+        <v>81.540000000000006</v>
+      </c>
+      <c r="I45" s="43"/>
+    </row>
+    <row r="46" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="39">
         <v>20</v>
       </c>
-      <c r="E44" s="40">
+      <c r="E46" s="40">
         <f>SUM(E29:E43)</f>
-        <v>14.343999999999998</v>
-      </c>
-      <c r="F44" s="40">
-        <f>SUM(F29:F43)</f>
-        <v>115.29400000000001</v>
-      </c>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="K45" s="43"/>
-    </row>
-    <row r="46" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="56"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+        <v>13.506</v>
+      </c>
+      <c r="F46" s="40">
+        <f>SUM(F29:F45)</f>
+        <v>207.21600000000001</v>
+      </c>
+      <c r="H46" s="43"/>
     </row>
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70" t="s">
-        <v>109</v>
-      </c>
+      <c r="A47" s="69"/>
       <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
+      <c r="C47" s="67">
+        <v>0.1</v>
+      </c>
       <c r="D47" s="67"/>
       <c r="E47" s="67"/>
       <c r="F47" s="67"/>
-    </row>
-    <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="56"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-    </row>
-    <row r="49" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
-        <v>82</v>
+      <c r="B48" s="55"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="69" t="s">
+        <v>112</v>
       </c>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
@@ -5100,7 +5180,7 @@
       <c r="E49" s="67"/>
       <c r="F49" s="67"/>
     </row>
-    <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="61"/>
       <c r="C50" s="60"/>
@@ -5108,15 +5188,17 @@
       <c r="E50" s="60"/>
       <c r="F50" s="60"/>
     </row>
-    <row r="51" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-    </row>
-    <row r="52" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="61"/>
       <c r="C52" s="60"/>
@@ -5124,73 +5206,63 @@
       <c r="E52" s="60"/>
       <c r="F52" s="60"/>
     </row>
-    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="60"/>
+    <row r="53" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
       <c r="B53" s="61"/>
       <c r="C53" s="60"/>
       <c r="D53" s="60"/>
       <c r="E53" s="60"/>
       <c r="F53" s="60"/>
     </row>
-    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="23"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="63"/>
-      <c r="F56" s="62"/>
+    <row r="54" spans="1:7" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="60"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="62"/>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="62"/>
       <c r="F57" s="62"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="62"/>
       <c r="B58" s="64" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C58" s="62"/>
       <c r="D58" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="62"/>
+      <c r="E58" s="63"/>
       <c r="F58" s="62"/>
       <c r="G58" s="23"/>
     </row>
-    <row r="59" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="62"/>
       <c r="B59" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="62"/>
       <c r="D59" s="64" t="s">
@@ -5200,10 +5272,10 @@
       <c r="F59" s="62"/>
       <c r="G59" s="23"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="62"/>
       <c r="B60" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="62"/>
       <c r="D60" s="64" t="s">
@@ -5213,10 +5285,10 @@
       <c r="F60" s="62"/>
       <c r="G60" s="23"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="62"/>
       <c r="B61" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="62"/>
       <c r="D61" s="64" t="s">
@@ -5229,19 +5301,25 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="62"/>
       <c r="B62" s="64" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
+      <c r="D62" s="64" t="s">
+        <v>89</v>
+      </c>
       <c r="E62" s="62"/>
       <c r="F62" s="62"/>
       <c r="G62" s="23"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="62"/>
-      <c r="B63" s="62"/>
+      <c r="B63" s="64" t="s">
+        <v>62</v>
+      </c>
       <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
+      <c r="D63" s="64" t="s">
+        <v>90</v>
+      </c>
       <c r="E63" s="62"/>
       <c r="F63" s="62"/>
       <c r="G63" s="23"/>
@@ -5249,26 +5327,46 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="62"/>
       <c r="B64" s="64" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C64" s="62"/>
-      <c r="D64" s="64" t="s">
-        <v>89</v>
-      </c>
+      <c r="D64" s="62"/>
       <c r="E64" s="62"/>
       <c r="F64" s="62"/>
       <c r="G64" s="23"/>
     </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="23"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="62"/>
+      <c r="B66" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="62"/>
+      <c r="D66" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A51:F51"/>
     <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A47:F47"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A47:F47"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>